--- a/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,646 +453,1321 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45243</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B3" t="n">
         <v>25</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B5" t="n">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B6" t="n">
         <v>39</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B7" t="n">
         <v>29</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
       </c>
-      <c r="C8" t="n">
-        <v>774</v>
+      <c r="C8" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B9" t="n">
         <v>27</v>
       </c>
-      <c r="C9" t="n">
-        <v>18</v>
+      <c r="C9" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B10" t="n">
         <v>23</v>
       </c>
-      <c r="C10" t="n">
-        <v>126</v>
+      <c r="C10" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B11" t="n">
         <v>34</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B12" t="n">
         <v>47</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B13" t="n">
         <v>52</v>
       </c>
-      <c r="C13" t="n">
-        <v>18</v>
+      <c r="C13" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B14" t="n">
         <v>51</v>
       </c>
-      <c r="C14" t="n">
-        <v>54</v>
+      <c r="C14" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B15" t="n">
         <v>65</v>
       </c>
-      <c r="C15" t="n">
-        <v>90</v>
+      <c r="C15" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B16" t="n">
         <v>54</v>
       </c>
-      <c r="C16" t="n">
-        <v>378</v>
+      <c r="C16" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B17" t="n">
         <v>67</v>
       </c>
-      <c r="C17" t="n">
-        <v>252</v>
+      <c r="C17" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B18" t="n">
         <v>83</v>
       </c>
-      <c r="C18" t="n">
-        <v>24</v>
+      <c r="C18" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B19" t="n">
         <v>72</v>
       </c>
-      <c r="C19" t="n">
-        <v>48</v>
+      <c r="C19" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B20" t="n">
         <v>72</v>
       </c>
-      <c r="C20" t="n">
-        <v>156</v>
+      <c r="C20" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="n">
         <v>97</v>
       </c>
-      <c r="C21" t="n">
-        <v>264</v>
+      <c r="C21" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="n">
         <v>127</v>
       </c>
-      <c r="C22" t="n">
-        <v>516</v>
+      <c r="C22" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B23" t="n">
         <v>101</v>
       </c>
-      <c r="C23" t="n">
-        <v>156</v>
+      <c r="C23" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B24" t="n">
         <v>101</v>
       </c>
-      <c r="C24" t="n">
-        <v>264</v>
+      <c r="C24" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B25" t="n">
         <v>79</v>
       </c>
-      <c r="C25" t="n">
-        <v>312</v>
+      <c r="C25" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B26" t="n">
         <v>108</v>
       </c>
-      <c r="C26" t="n">
-        <v>144</v>
+      <c r="C26" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B27" t="n">
         <v>80</v>
       </c>
-      <c r="C27" t="n">
-        <v>84</v>
+      <c r="C27" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B28" t="n">
         <v>105</v>
       </c>
-      <c r="C28" t="n">
-        <v>396</v>
+      <c r="C28" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B29" t="n">
         <v>33</v>
       </c>
-      <c r="C29" t="n">
-        <v>96</v>
+      <c r="C29" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B30" t="n">
         <v>75</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B31" t="n">
         <v>77</v>
       </c>
-      <c r="C31" t="n">
-        <v>1560</v>
+      <c r="C31" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B32" t="n">
         <v>52</v>
       </c>
-      <c r="C32" t="n">
-        <v>168</v>
+      <c r="C32" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B33" t="n">
         <v>48</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B34" t="n">
         <v>39</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B35" t="n">
         <v>416</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B36" t="n">
         <v>172</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B37" t="n">
         <v>62</v>
       </c>
-      <c r="C37" t="n">
-        <v>324</v>
+      <c r="C37" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B38" t="n">
         <v>84</v>
       </c>
-      <c r="C38" t="n">
-        <v>396</v>
+      <c r="C38" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B39" t="n">
         <v>104</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B40" t="n">
         <v>137</v>
       </c>
-      <c r="C40" t="n">
-        <v>36</v>
+      <c r="C40" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B41" t="n">
         <v>748</v>
       </c>
-      <c r="C41" t="n">
-        <v>1092</v>
+      <c r="C41" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B42" t="n">
         <v>111</v>
       </c>
-      <c r="C42" t="n">
-        <v>108</v>
+      <c r="C42" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B43" t="n">
         <v>86</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B44" t="n">
         <v>93</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B45" t="n">
         <v>55</v>
       </c>
-      <c r="C45" t="n">
-        <v>216</v>
+      <c r="C45" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B46" t="n">
         <v>36</v>
       </c>
-      <c r="C46" t="n">
-        <v>468</v>
+      <c r="C46" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B47" t="n">
         <v>85</v>
       </c>
-      <c r="C47" t="n">
-        <v>132</v>
+      <c r="C47" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B48" t="n">
         <v>98</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B49" t="n">
         <v>59</v>
       </c>
-      <c r="C49" t="n">
-        <v>1116</v>
+      <c r="C49" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B50" t="n">
         <v>43</v>
       </c>
-      <c r="C50" t="n">
-        <v>1260</v>
+      <c r="C50" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B51" t="n">
         <v>44</v>
       </c>
-      <c r="C51" t="n">
-        <v>36</v>
+      <c r="C51" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B52" t="n">
         <v>60</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B53" t="n">
         <v>162</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B54" t="n">
         <v>519</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B55" t="n">
         <v>671</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B56" t="n">
         <v>169</v>
       </c>
-      <c r="C56" t="n">
-        <v>24</v>
+      <c r="C56" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B57" t="n">
         <v>93</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B58" t="n">
         <v>62</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B59" t="n">
         <v>77</v>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
+      <c r="C59" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>774</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-97.67441860465115</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>126</v>
+      </c>
+      <c r="C4" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-85.71428571428572</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B6" t="n">
+        <v>54</v>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90</v>
+      </c>
+      <c r="C7" t="n">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B8" t="n">
+        <v>378</v>
+      </c>
+      <c r="C8" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B9" t="n">
+        <v>252</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-33.33333333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-90.47619047619048</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B12" t="n">
+        <v>156</v>
+      </c>
+      <c r="C12" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B13" t="n">
+        <v>264</v>
+      </c>
+      <c r="C13" t="n">
+        <v>69.23076923076923</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B14" t="n">
+        <v>516</v>
+      </c>
+      <c r="C14" t="n">
+        <v>95.45454545454545</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B15" t="n">
+        <v>156</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-69.76744186046511</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B16" t="n">
+        <v>264</v>
+      </c>
+      <c r="C16" t="n">
+        <v>69.23076923076923</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B17" t="n">
+        <v>312</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18.18181818181819</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B18" t="n">
+        <v>144</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-53.84615384615385</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B19" t="n">
+        <v>84</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-41.66666666666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B20" t="n">
+        <v>396</v>
+      </c>
+      <c r="C20" t="n">
+        <v>371.4285714285714</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B21" t="n">
+        <v>96</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-75.75757575757575</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B23" t="n">
+        <v>168</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-89.23076923076923</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B24" t="n">
+        <v>324</v>
+      </c>
+      <c r="C24" t="n">
+        <v>92.85714285714286</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B25" t="n">
+        <v>396</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22.22222222222223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B26" t="n">
+        <v>36</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-90.90909090909091</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2933.333333333333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B28" t="n">
+        <v>108</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-90.10989010989012</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B29" t="n">
+        <v>216</v>
+      </c>
+      <c r="C29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B30" t="n">
+        <v>468</v>
+      </c>
+      <c r="C30" t="n">
+        <v>116.6666666666667</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B31" t="n">
+        <v>132</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-71.7948717948718</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1116</v>
+      </c>
+      <c r="C32" t="n">
+        <v>745.4545454545455</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.90322580645162</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B34" t="n">
+        <v>36</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-97.14285714285714</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B35" t="n">
+        <v>24</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-33.33333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11106</v>
+      </c>
+      <c r="B2" t="n">
+        <v>326.6470588235294</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1560</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>515.5508021390374</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,824 +453,645 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="C2" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>774</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>65</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>54</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>67</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>83</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>72</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>72</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>97</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>127</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>101</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>101</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>79</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>108</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>80</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>105</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>396</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>33</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>75</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>77</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="C31" t="n">
+        <v>1560</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>52</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="C32" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>48</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>39</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>416</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>172</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>62</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="C37" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>84</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="C38" t="n">
+        <v>396</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>104</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>137</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>748</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="C41" t="n">
+        <v>1092</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>111</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+      <c r="C42" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>86</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>93</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>55</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+      <c r="C45" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>36</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+      <c r="C46" t="n">
+        <v>468</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>85</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+      <c r="C47" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>98</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>59</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+      <c r="C49" t="n">
+        <v>1116</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>43</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="C50" t="n">
+        <v>1260</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>44</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="C51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>60</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>162</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>519</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>671</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>169</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+      <c r="C56" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>93</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>62</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>77</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1285,7 +1106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,10 +1133,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>774</v>
+        <v>66</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1323,364 +1144,408 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>-97.67441860465115</v>
+        <v>-45.45454545454546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
-        <v>600</v>
+        <v>83.33333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
-        <v>-85.71428571428572</v>
+        <v>-36.36363636363637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>774</v>
       </c>
       <c r="C6" t="n">
-        <v>200</v>
+        <v>1742.857142857143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>66.66666666666667</v>
+        <v>-97.67441860465115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>-33.33333333333334</v>
+        <v>-85.71428571428572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C10" t="n">
-        <v>-90.47619047619048</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>156</v>
+        <v>378</v>
       </c>
       <c r="C12" t="n">
-        <v>225</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C13" t="n">
-        <v>69.23076923076923</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>516</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>95.45454545454545</v>
+        <v>-90.47619047619048</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
-        <v>-69.76744186046511</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="C16" t="n">
-        <v>69.23076923076923</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C17" t="n">
-        <v>18.18181818181819</v>
+        <v>69.23076923076923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>144</v>
+        <v>516</v>
       </c>
       <c r="C18" t="n">
-        <v>-53.84615384615385</v>
+        <v>95.45454545454545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="C19" t="n">
-        <v>-41.66666666666666</v>
+        <v>-69.76744186046511</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="C20" t="n">
-        <v>371.4285714285714</v>
+        <v>69.23076923076923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="C21" t="n">
-        <v>-75.75757575757575</v>
+        <v>18.18181818181819</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1560</v>
+        <v>144</v>
       </c>
       <c r="C22" t="n">
-        <v>1525</v>
+        <v>-53.84615384615385</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45460</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="C23" t="n">
-        <v>-89.23076923076923</v>
+        <v>-41.66666666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45495</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="C24" t="n">
-        <v>92.85714285714286</v>
+        <v>371.4285714285714</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45502</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>396</v>
+        <v>96</v>
       </c>
       <c r="C25" t="n">
-        <v>22.22222222222223</v>
+        <v>-75.75757575757575</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45516</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>36</v>
+        <v>1560</v>
       </c>
       <c r="C26" t="n">
-        <v>-90.90909090909091</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45523</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1092</v>
+        <v>168</v>
       </c>
       <c r="C27" t="n">
-        <v>2933.333333333333</v>
+        <v>-89.23076923076923</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45530</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="C28" t="n">
-        <v>-90.10989010989012</v>
+        <v>92.85714285714286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45551</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>216</v>
+        <v>396</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>22.22222222222223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45558</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>468</v>
+        <v>36</v>
       </c>
       <c r="C30" t="n">
-        <v>116.6666666666667</v>
+        <v>-90.90909090909091</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45565</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>132</v>
+        <v>1092</v>
       </c>
       <c r="C31" t="n">
-        <v>-71.7948717948718</v>
+        <v>2933.333333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45579</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>1116</v>
+        <v>108</v>
       </c>
       <c r="C32" t="n">
-        <v>745.4545454545455</v>
+        <v>-90.10989010989012</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45586</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1260</v>
+        <v>216</v>
       </c>
       <c r="C33" t="n">
-        <v>12.90322580645162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45593</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
+        <v>468</v>
       </c>
       <c r="C34" t="n">
-        <v>-97.14285714285714</v>
+        <v>116.6666666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45628</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B35" t="n">
+        <v>132</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-71.7948717948718</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1116</v>
+      </c>
+      <c r="C36" t="n">
+        <v>745.4545454545455</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.90322580645162</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-97.14285714285714</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B39" t="n">
         <v>24</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>-33.33333333333334</v>
       </c>
     </row>
@@ -1727,10 +1592,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11106</v>
+        <v>11316</v>
       </c>
       <c r="B2" t="n">
-        <v>326.6470588235294</v>
+        <v>297.7894736842105</v>
       </c>
       <c r="C2" t="n">
         <v>1560</v>
@@ -1767,7 +1632,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>515.5508021390374</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,6 +915,14 @@
       </c>
       <c r="B59" t="n">
         <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -33181,7 +33189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35931,7 +35939,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250">
@@ -35942,7 +35950,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251">
@@ -35953,7 +35961,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
@@ -35964,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253">
@@ -35975,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254">
@@ -35986,7 +35994,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255">
@@ -35997,7 +36005,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256">
@@ -36008,7 +36016,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="257">
@@ -36019,7 +36027,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258">
@@ -36030,7 +36038,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259">
@@ -36261,7 +36269,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="280">
@@ -36283,7 +36291,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282">
@@ -36294,7 +36302,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283">
@@ -36305,7 +36313,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="284">
@@ -36316,7 +36324,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285">
@@ -36822,6 +36830,17 @@
         <v>77</v>
       </c>
       <c r="C330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B331" t="n">
+        <v>72</v>
+      </c>
+      <c r="C331" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,6 +923,14 @@
       </c>
       <c r="B60" t="n">
         <v>72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -33189,7 +33197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:C332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34949,7 +34957,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
@@ -34982,7 +34990,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -35026,7 +35034,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
@@ -35037,7 +35045,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
@@ -36115,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
@@ -36126,7 +36134,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267">
@@ -36170,7 +36178,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="271">
@@ -36181,7 +36189,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272">
@@ -36192,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273">
@@ -36203,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="274">
@@ -36214,7 +36222,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="275">
@@ -36225,7 +36233,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="276">
@@ -36236,7 +36244,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="277">
@@ -36247,7 +36255,7 @@
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>204</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278">
@@ -36269,7 +36277,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280">
@@ -36291,7 +36299,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282">
@@ -36302,7 +36310,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="283">
@@ -36313,7 +36321,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284">
@@ -36324,7 +36332,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="285">
@@ -36522,7 +36530,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>42</v>
+        <v>492</v>
       </c>
     </row>
     <row r="303">
@@ -36533,7 +36541,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>492</v>
+        <v>42</v>
       </c>
     </row>
     <row r="304">
@@ -36544,7 +36552,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305">
@@ -36555,7 +36563,7 @@
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306">
@@ -36566,7 +36574,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>6</v>
+        <v>492</v>
       </c>
     </row>
     <row r="307">
@@ -36577,7 +36585,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="308">
@@ -36588,7 +36596,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309">
@@ -36599,7 +36607,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310">
@@ -36632,7 +36640,7 @@
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>234</v>
+        <v>48</v>
       </c>
     </row>
     <row r="313">
@@ -36643,7 +36651,7 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>234</v>
+        <v>48</v>
       </c>
     </row>
     <row r="314">
@@ -36654,7 +36662,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>48</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315">
@@ -36665,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>348</v>
+        <v>234</v>
       </c>
     </row>
     <row r="316">
@@ -36676,7 +36684,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>48</v>
+        <v>234</v>
       </c>
     </row>
     <row r="317">
@@ -36841,6 +36849,17 @@
         <v>72</v>
       </c>
       <c r="C331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B332" t="n">
+        <v>73</v>
+      </c>
+      <c r="C332" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,6 +931,14 @@
       </c>
       <c r="B61" t="n">
         <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -33197,7 +33205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C332"/>
+  <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35089,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
@@ -35100,7 +35108,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173">
@@ -35111,7 +35119,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -35122,7 +35130,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175">
@@ -35133,7 +35141,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
@@ -35144,7 +35152,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177">
@@ -35155,7 +35163,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -35166,7 +35174,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179">
@@ -35177,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
@@ -35298,7 +35306,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
@@ -35331,7 +35339,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
@@ -35353,7 +35361,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196">
@@ -35375,7 +35383,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198">
@@ -35386,7 +35394,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199">
@@ -35397,7 +35405,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
@@ -35474,7 +35482,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207">
@@ -35496,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
@@ -35518,7 +35526,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211">
@@ -35529,7 +35537,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
@@ -35595,7 +35603,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218">
@@ -35617,7 +35625,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="220">
@@ -35936,7 +35944,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="249">
@@ -35947,7 +35955,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -35958,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251">
@@ -35969,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
@@ -35980,7 +35988,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253">
@@ -36002,7 +36010,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255">
@@ -36024,7 +36032,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257">
@@ -36035,7 +36043,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
@@ -36046,7 +36054,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="259">
@@ -36057,7 +36065,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260">
@@ -36178,7 +36186,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271">
@@ -36189,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>30</v>
+        <v>174</v>
       </c>
     </row>
     <row r="272">
@@ -36200,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="273">
@@ -36211,7 +36219,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="274">
@@ -36222,7 +36230,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="275">
@@ -36244,7 +36252,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="277">
@@ -36321,7 +36329,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="284">
@@ -36332,7 +36340,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285">
@@ -36409,7 +36417,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="292">
@@ -36420,7 +36428,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>198</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293">
@@ -36431,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294">
@@ -36442,7 +36450,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="295">
@@ -36453,7 +36461,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296">
@@ -36464,7 +36472,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>30</v>
+        <v>198</v>
       </c>
     </row>
     <row r="297">
@@ -36530,7 +36538,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>492</v>
+        <v>42</v>
       </c>
     </row>
     <row r="303">
@@ -36541,7 +36549,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>42</v>
+        <v>492</v>
       </c>
     </row>
     <row r="304">
@@ -36552,7 +36560,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305">
@@ -36574,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307">
@@ -36585,7 +36593,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308">
@@ -36596,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>6</v>
+        <v>492</v>
       </c>
     </row>
     <row r="309">
@@ -36607,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310">
@@ -36629,7 +36637,7 @@
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>348</v>
+        <v>48</v>
       </c>
     </row>
     <row r="312">
@@ -36640,7 +36648,7 @@
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>48</v>
+        <v>348</v>
       </c>
     </row>
     <row r="313">
@@ -36662,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>348</v>
+        <v>234</v>
       </c>
     </row>
     <row r="315">
@@ -36673,7 +36681,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>234</v>
+        <v>348</v>
       </c>
     </row>
     <row r="316">
@@ -36860,6 +36868,17 @@
         <v>73</v>
       </c>
       <c r="C332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B333" t="n">
+        <v>174</v>
+      </c>
+      <c r="C333" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMK1W2YX_sales_po_comparison.xlsx
@@ -938,7 +938,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>174</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -36876,7 +36876,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B333" t="n">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
